--- a/build/Dados/base_psm.xlsx
+++ b/build/Dados/base_psm.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2e8a05523c70c805/Área de Trabalho/Dissertação/Projeto/analise-brt-emprego/build/Dados/BasesGP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2e8a05523c70c805/Área de Trabalho/Dissertação/Projeto/analise-brt-emprego/build/Dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3A6B145-17FA-4E23-85A6-B4BA0AFF94E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{D3A6B145-17FA-4E23-85A6-B4BA0AFF94E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4187ACEE-360A-4C94-81FE-A2ACEF12E417}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="5328" windowWidth="23256" windowHeight="13176" xr2:uid="{C7F585AB-D6CF-4A51-9AE3-089AC9FE507C}"/>
+    <workbookView xWindow="22944" yWindow="5340" windowWidth="23232" windowHeight="13152" xr2:uid="{C7F585AB-D6CF-4A51-9AE3-089AC9FE507C}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="81">
   <si>
     <t>RA-I</t>
   </si>
@@ -351,13 +351,19 @@
   <si>
     <t>tmgca</t>
   </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.00;[Red]0.00"/>
+    <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -411,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -421,8 +427,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -437,6 +443,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -773,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D36DE4B-2119-4BA0-A25E-B49A0B5723EE}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -999,8 +1006,8 @@
       <c r="C9" s="5">
         <v>15</v>
       </c>
-      <c r="D9" s="6">
-        <v>5</v>
+      <c r="D9" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>15</v>
@@ -1025,8 +1032,8 @@
       <c r="C10" s="5">
         <v>33</v>
       </c>
-      <c r="D10" s="6">
-        <v>230.33</v>
+      <c r="D10" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>17</v>
@@ -1051,8 +1058,8 @@
       <c r="C11" s="5">
         <v>12</v>
       </c>
-      <c r="D11" s="6">
-        <v>37.5</v>
+      <c r="D11" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>19</v>
@@ -1077,8 +1084,8 @@
       <c r="C12" s="5">
         <v>7</v>
       </c>
-      <c r="D12" s="6">
-        <v>2.8</v>
+      <c r="D12" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>21</v>
@@ -1103,8 +1110,8 @@
       <c r="C13" s="5">
         <v>35</v>
       </c>
-      <c r="D13" s="6">
-        <v>102.6</v>
+      <c r="D13" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>23</v>
@@ -1129,8 +1136,8 @@
       <c r="C14" s="5">
         <v>39</v>
       </c>
-      <c r="D14" s="6">
-        <v>215.86</v>
+      <c r="D14" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>25</v>
@@ -1181,8 +1188,8 @@
       <c r="C16" s="5">
         <v>30</v>
       </c>
-      <c r="D16" s="6">
-        <v>101.22</v>
+      <c r="D16" s="13" t="s">
+        <v>80</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>29</v>
